--- a/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-available-time-type-of-time</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-available-time-type-of-time</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -243,21 +243,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -907,10 +907,10 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -935,7 +935,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1010,7 +1010,7 @@
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1113,10 +1113,10 @@
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>93</v>
@@ -1138,10 +1138,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1215,10 +1215,10 @@
         <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1243,10 +1243,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1321,10 +1321,10 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>107</v>

--- a/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:28:22+00:00</t>
+    <t>2023-02-17T16:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-available-time-type-of-time.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-available-time-type-of-time</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-available-time-type-of-time</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:29:47+00:00</t>
+    <t>2022-06-30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -243,21 +243,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>*</t>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -907,10 +907,10 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -935,7 +935,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1010,7 +1010,7 @@
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1113,10 +1113,10 @@
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>93</v>
@@ -1138,10 +1138,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1215,10 +1215,10 @@
         <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1243,10 +1243,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1321,10 +1321,10 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>107</v>
